--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA6DD7-E066-7745-93D6-1273DA57AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA6E76A-6F74-6D41-A2E3-C4CBCA8981DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -171,22 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>製品依頼数分、在庫処理</t>
-    <rPh sb="0" eb="1">
-      <t>セイヒn</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>集荷待ちから出荷完了にプロセス以降時</t>
     <rPh sb="0" eb="5">
       <t>シュッカ</t>
@@ -213,20 +197,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月次処理連携</t>
-    <rPh sb="0" eb="4">
-      <t>ゲテゥ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理中から受領待ちにプロセス以降時</t>
     <rPh sb="0" eb="5">
       <t>シュッカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次レポート処理</t>
+    <rPh sb="0" eb="8">
+      <t>ゲテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷ロケーションが選択されていない場合、エラー表示</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中から納品情報未確定にプロセス以降時</t>
+    <rPh sb="0" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件IDがある場合のみ対応した案件レコードを差し戻す</t>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アンケn</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サシモドス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面表示時</t>
+    <rPh sb="0" eb="7">
+      <t>イティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件IDがあるレコードのステータスを処理開始に</t>
+    <rPh sb="18" eb="22">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫処理</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>report_adp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面表示時</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒョウジゼィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品別在庫残数リストに全商品追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウジゼィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案件導入管理と仕入管理の情報を取得し、製品別在庫残数の出荷予定数、リードタイム後残数、差引残数を更新</t>
+    <rPh sb="19" eb="22">
+      <t>セイヒn</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="27" eb="32">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>サシヒキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レポート月のASS情報を取得し、ASS在庫残数リストを更新</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -779,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -910,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
@@ -925,10 +1020,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -943,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
@@ -952,7 +1047,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="20">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -961,69 +1056,101 @@
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="20">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="20">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="20">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="40">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="40">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="12"/>

--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA6E76A-6F74-6D41-A2E3-C4CBCA8981DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2E090-DF79-2A41-B652-D360EA3F553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -204,13 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月次レポート処理</t>
-    <rPh sb="0" eb="8">
-      <t>ゲテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出荷ロケーションが選択されていない場合、エラー表示</t>
     <rPh sb="0" eb="2">
       <t>シュッカ</t>
@@ -286,22 +279,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集画面、新規作成画面保存時</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="11">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒョウジゼィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>案件導入管理と仕入管理の情報を取得し、製品別在庫残数の出荷予定数、リードタイム後残数、差引残数を更新</t>
     <rPh sb="19" eb="22">
       <t>セイヒn</t>
@@ -322,6 +299,123 @@
   </si>
   <si>
     <t>レポート月のASS情報を取得し、ASS在庫残数リストを更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時　一時確認</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウジゼィ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時　一時確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存成功時　一時確認</t>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次月のレポートを作成or更新
+（差引数量が0以下のものは次月に載せない）</t>
+    <rPh sb="0" eb="2">
+      <t>ジゲテゥ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシn</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>サシヒキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジゲテゥ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ノセナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存成功時　二時確認</t>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次月のレポートの先月残数更新</t>
+    <rPh sb="0" eb="1">
+      <t>ジゲテゥ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>センゲテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次レポート処理</t>
+    <rPh sb="0" eb="2">
+      <t>ゲテゥ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common_function.jsに詳細記入</t>
+    <rPh sb="19" eb="23">
+      <t>ショウサイキンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shippingList_adp.js（入出荷管理）</t>
+    <rPh sb="20" eb="25">
+      <t>ニュウシュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>report_adp.js（月次レポート）</t>
+    <rPh sb="14" eb="16">
+      <t>ゲテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchasing_adp.js（仕入管理）</t>
+    <rPh sb="18" eb="22">
+      <t>シイレ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -872,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -945,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -959,7 +1053,6 @@
     </row>
     <row r="6" spans="1:8" ht="20">
       <c r="B6" s="5">
-        <f>ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -969,13 +1062,13 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="60">
+    <row r="7" spans="1:8" ht="20">
       <c r="B7" s="5">
         <f>ROW()-4</f>
         <v>3</v>
@@ -987,15 +1080,15 @@
         <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="20">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="60">
       <c r="B8" s="5">
-        <f t="shared" ref="B8:B22" si="0">ROW()-4</f>
+        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1005,31 +1098,33 @@
         <v>11</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="40">
+    <row r="9" spans="1:8" ht="20">
       <c r="B9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B9:B23" si="0">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="20">
+      <c r="H9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1041,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -1056,14 +1151,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="20">
       <c r="B12" s="5">
@@ -1074,10 +1171,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -1092,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -1107,31 +1204,31 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="40">
+    <row r="15" spans="1:8" ht="20">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -1143,61 +1240,81 @@
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="40">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="40">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19"/>
+    <row r="19" spans="1:8" ht="20">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20"/>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -1222,22 +1339,25 @@
         <v>18</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="21" customHeight="1"/>
-    <row r="36" spans="1:7" ht="14">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1"/>
     <row r="37" spans="1:7" ht="14">
       <c r="A37"/>
       <c r="B37"/>
@@ -1570,6 +1690,15 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" ht="14">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>

--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2E090-DF79-2A41-B652-D360EA3F553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE757EC-FC6E-3A4A-A223-A8E7012051C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -110,16 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出荷準備中から集荷待ちにプロセス以降時</t>
-    <rPh sb="0" eb="5">
-      <t>シュッカ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>シュウカム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>送付日が未記入の場合、プロセスが進まずエラー表示</t>
     <rPh sb="0" eb="3">
       <t>ソウヘゥ</t>
@@ -171,13 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>集荷待ちから出荷完了にプロセス以降時</t>
-    <rPh sb="0" eb="5">
-      <t>シュッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>案件IDがある場合のみ輸送情報を対応した案件導入レコードに連携</t>
     <rPh sb="0" eb="2">
       <t>アンケn</t>
@@ -197,26 +180,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理中から受領待ちにプロセス以降時</t>
-    <rPh sb="0" eb="5">
-      <t>シュッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出荷ロケーションが選択されていない場合、エラー表示</t>
     <rPh sb="0" eb="2">
       <t>シュッカ</t>
     </rPh>
     <rPh sb="9" eb="11">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理中から納品情報未確定にプロセス以降時</t>
-    <rPh sb="0" eb="5">
-      <t>シュッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,16 +327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集画面、新規作成画面保存成功時　二時確認</t>
-    <rPh sb="13" eb="15">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ニ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>次月のレポートの先月残数更新</t>
     <rPh sb="0" eb="1">
       <t>ジゲテゥ</t>
@@ -415,6 +374,79 @@
     <t>purchasing_adp.js（仕入管理）</t>
     <rPh sb="18" eb="22">
       <t>シイレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス移行時</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷準備中から集荷待ちにプロセス移行時</t>
+    <rPh sb="0" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュウカム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集荷待ちから出荷完了にプロセス移行時</t>
+    <rPh sb="0" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中から受領待ちにプロセス移行時</t>
+    <rPh sb="0" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中から納品情報未確定にプロセス移行時</t>
+    <rPh sb="0" eb="5">
+      <t>シュッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送付日に対応したレポートが一時確認以上の場合規定の処理</t>
+    <rPh sb="0" eb="1">
+      <t>ソウヘゥ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>k</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存成功時　二時確認、締切</t>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ニ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメキリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -968,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1034,22 +1066,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20">
+    <row r="5" spans="1:8" ht="40">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="20">
       <c r="B6" s="5">
@@ -1059,10 +1093,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
@@ -1070,17 +1104,16 @@
     </row>
     <row r="7" spans="1:8" ht="20">
       <c r="B7" s="5">
-        <f>ROW()-4</f>
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -1088,17 +1121,16 @@
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="B8" s="5">
-        <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
@@ -1106,37 +1138,35 @@
     </row>
     <row r="9" spans="1:8" ht="20">
       <c r="B9" s="5">
-        <f t="shared" ref="B9:B23" si="0">ROW()-4</f>
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40">
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
@@ -1144,37 +1174,35 @@
     </row>
     <row r="11" spans="1:8" ht="20">
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20">
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
@@ -1182,17 +1210,16 @@
     </row>
     <row r="13" spans="1:8" ht="20">
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
@@ -1200,17 +1227,16 @@
     </row>
     <row r="14" spans="1:8" ht="20">
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -1218,17 +1244,16 @@
     </row>
     <row r="15" spans="1:8" ht="20">
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -1236,17 +1261,16 @@
     </row>
     <row r="16" spans="1:8" ht="40">
       <c r="B16" s="5">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1254,17 +1278,16 @@
     </row>
     <row r="17" spans="1:8" ht="40">
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -1272,17 +1295,16 @@
     </row>
     <row r="18" spans="1:8" ht="40">
       <c r="B18" s="5">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -1290,17 +1312,16 @@
     </row>
     <row r="19" spans="1:8" ht="20">
       <c r="B19" s="5">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
@@ -1309,11 +1330,10 @@
     <row r="20" spans="1:8">
       <c r="A20"/>
       <c r="B20" s="5">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8"/>
@@ -1323,7 +1343,6 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="5">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C21" s="6"/>
@@ -1335,7 +1354,6 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="5">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C22" s="6"/>
@@ -1347,7 +1365,6 @@
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
@@ -1357,7 +1374,61 @@
       <c r="G23" s="10"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1"/>
+    <row r="24" spans="1:8">
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="5">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1">
+      <c r="B26" s="5">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="5">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="5">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12"/>
+    </row>
     <row r="37" spans="1:7" ht="14">
       <c r="A37"/>
       <c r="B37"/>

--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE757EC-FC6E-3A4A-A223-A8E7012051C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E81552-DA43-F84A-9B89-6B55AB3B60D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -268,29 +268,6 @@
   </si>
   <si>
     <t>レポート月のASS情報を取得し、ASS在庫残数リストを更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集画面、新規作成画面保存時　一時確認</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="11">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホゾn</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒョウジゼィ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>イティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>編集画面、新規作成画面保存時　一時確認</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -447,6 +424,98 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要の在庫金額等、金額処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時　一時確認,二時確認,締切</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウジゼィ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イティ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存時　一時確認,二時確認,締切</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入荷日に対応したレポートが一時確認以上の場合規定の処理</t>
+    <rPh sb="1" eb="3">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>イティ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>k</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入完了にプロセス移行時</t>
+    <rPh sb="0" eb="4">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目が重複時エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purchasing_adp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_adp.js（商品管理）</t>
+    <rPh sb="14" eb="18">
+      <t>ショウヒn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1071,18 +1140,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20">
@@ -1092,8 +1161,8 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>11</v>
@@ -1109,8 +1178,8 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
@@ -1126,8 +1195,8 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
@@ -1143,8 +1212,8 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
@@ -1152,7 +1221,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40">
@@ -1162,8 +1231,8 @@
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -1179,16 +1248,16 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
+      <c r="D11" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20">
@@ -1198,8 +1267,8 @@
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>15</v>
@@ -1215,8 +1284,8 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -1232,7 +1301,7 @@
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1247,9 +1316,9 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
@@ -1266,8 +1335,8 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>23</v>
@@ -1283,8 +1352,8 @@
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>26</v>
+      <c r="D17" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
@@ -1293,112 +1362,146 @@
       <c r="G17" s="10"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" ht="40">
-      <c r="B18" s="5">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:8" ht="20">
+      <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>27</v>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" ht="20">
+    <row r="19" spans="1:8" ht="40">
       <c r="B19" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>41</v>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20"/>
+    <row r="20" spans="1:8" ht="20">
       <c r="B20" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="40">
+      <c r="A21"/>
       <c r="B21" s="5">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20">
       <c r="B22" s="5">
-        <v>18</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="20">
       <c r="B23" s="5">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="7"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20">
       <c r="B24" s="5">
-        <v>20</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="5">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="21" customHeight="1">
+    <row r="26" spans="1:8">
       <c r="B26" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -1407,9 +1510,9 @@
       <c r="G26" s="10"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="21" customHeight="1">
       <c r="B27" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1420,7 +1523,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -1429,14 +1532,16 @@
       <c r="G28" s="10"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="14">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
+    <row r="29" spans="1:8">
+      <c r="B29" s="5">
+        <v>24</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="38" spans="1:7" ht="14">
       <c r="A38"/>
@@ -1770,6 +1875,15 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" ht="14">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>

--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E81552-DA43-F84A-9B89-6B55AB3B60D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628DEB8-3402-154B-8208-A9788090AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -516,6 +516,151 @@
     <t>device_adp.js（商品管理）</t>
     <rPh sb="14" eb="18">
       <t>ショウヒn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成画面表示時</t>
+    <rPh sb="6" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全拠点情報を拠点リストに格納する</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンキョテンジョウヘ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョテn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>device_adp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成画面保存成功時</t>
+  </si>
+  <si>
+    <t>拠点管理情報に新規商品情報を更新</t>
+    <rPh sb="0" eb="4">
+      <t>キョテn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各品目マスターの情報更新</t>
+    <rPh sb="0" eb="3">
+      <t>カクヒn</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面保存成功時</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面表示時　パッケージ一覧編集</t>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目コード入力時、コードに対応した情報を挿入</t>
+    <rPh sb="0" eb="1">
+      <t>ヒンモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_adp.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全商品情報を商品リストに格納する</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンキョテンジョウヘ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠商品理情報に新規拠点情報を更新</t>
+    <rPh sb="0" eb="4">
+      <t>キョテn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品管理情報に新規拠点情報を更新</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョテn</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="13">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_adp.js（拠点管理）</t>
+    <rPh sb="12" eb="14">
+      <t>キョテn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -677,7 +822,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,9 +843,6 @@
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1086,28 +1228,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14">
         <v>44490</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -1142,15 +1284,15 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1161,15 +1303,15 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="20">
       <c r="B7" s="5">
@@ -1178,15 +1320,15 @@
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="60">
       <c r="B8" s="5">
@@ -1195,15 +1337,15 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="20">
       <c r="B9" s="5">
@@ -1212,15 +1354,15 @@
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1231,15 +1373,15 @@
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="20">
       <c r="B11" s="5">
@@ -1248,15 +1390,15 @@
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1267,15 +1409,15 @@
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="20">
       <c r="B13" s="5">
@@ -1284,15 +1426,15 @@
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="20">
       <c r="B14" s="5">
@@ -1301,15 +1443,15 @@
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="20">
       <c r="B15" s="5">
@@ -1318,15 +1460,15 @@
       <c r="C15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="40">
       <c r="B16" s="5">
@@ -1335,15 +1477,15 @@
       <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="40">
       <c r="B17" s="5">
@@ -1352,198 +1494,334 @@
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="20">
-      <c r="B18" s="5"/>
+      <c r="B18" s="5">
+        <v>14</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="40">
       <c r="B19" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="20">
       <c r="B20" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="40">
       <c r="A21"/>
       <c r="B21" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20">
       <c r="B22" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="20">
       <c r="B23" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20">
       <c r="B24" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="20">
       <c r="B25" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="D25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="20">
       <c r="B26" s="5">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
       <c r="B27" s="5">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" ht="20">
       <c r="B28" s="5">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="20">
       <c r="B29" s="5">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="38" spans="1:7" ht="14">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="20">
+      <c r="B30" s="5">
+        <v>26</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="20">
+      <c r="B31" s="5">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="20">
+      <c r="B32" s="5">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" ht="20">
+      <c r="B33" s="5">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="5">
+        <v>30</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" ht="14">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:8" ht="14">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:8" ht="14">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:8" ht="14">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1552,7 +1830,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="14">
+    <row r="39" spans="1:8" ht="14">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1561,7 +1839,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="14">
+    <row r="40" spans="1:8" ht="14">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1570,7 +1848,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="14">
+    <row r="41" spans="1:8" ht="14">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1579,7 +1857,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="14">
+    <row r="42" spans="1:8" ht="14">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1588,7 +1866,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="14">
+    <row r="43" spans="1:8" ht="14">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1597,7 +1875,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:8" ht="14">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1606,7 +1884,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="14">
+    <row r="45" spans="1:8" ht="14">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1615,7 +1893,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:8" ht="14">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1624,7 +1902,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:8" ht="14">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1633,7 +1911,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:8" ht="14">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1830,60 +2108,6 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
-    </row>
-    <row r="70" spans="1:7" ht="14">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="1:7" ht="14">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="1:7" ht="14">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="1:7" ht="14">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="1:7" ht="14">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-    </row>
-    <row r="75" spans="1:7" ht="14">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>

--- a/space/inventory/在庫管理_機能一覧.xlsx
+++ b/space/inventory/在庫管理_機能一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiichi-maeda/Documents/GitHub/kintone_mng/space/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628DEB8-3402-154B-8208-A9788090AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FE07B9-D732-5B4A-889D-DD790334E1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -661,6 +661,26 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面、新規作成画面保存成功時　締切</t>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積送(ASS)からASS在庫残数リストの請求対象出荷数分製品を減らす</t>
+    <rPh sb="0" eb="2">
+      <t>セキソウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セイヒn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1209,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1556,45 +1576,45 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="40">
-      <c r="A21"/>
       <c r="B21" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" ht="40">
+      <c r="A22"/>
       <c r="B22" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="20">
       <c r="B23" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>46</v>
@@ -1603,17 +1623,15 @@
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="20">
       <c r="B24" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>46</v>
@@ -1622,7 +1640,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
@@ -1632,41 +1650,43 @@
     </row>
     <row r="25" spans="1:8" ht="20">
       <c r="B25" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="20">
       <c r="B26" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="21" customHeight="1">
+    <row r="27" spans="1:8" ht="20">
       <c r="B27" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>50</v>
@@ -1675,24 +1695,24 @@
         <v>51</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="20">
+    <row r="28" spans="1:8" ht="21" customHeight="1">
       <c r="B28" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
@@ -1700,7 +1720,7 @@
     </row>
     <row r="29" spans="1:8" ht="20">
       <c r="B29" s="5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>50</v>
@@ -1709,7 +1729,7 @@
         <v>54</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9"/>
@@ -1717,16 +1737,16 @@
     </row>
     <row r="30" spans="1:8" ht="20">
       <c r="B30" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="9"/>
@@ -1734,16 +1754,16 @@
     </row>
     <row r="31" spans="1:8" ht="20">
       <c r="B31" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9"/>
@@ -1751,16 +1771,16 @@
     </row>
     <row r="32" spans="1:8" ht="20">
       <c r="B32" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9"/>
@@ -1768,40 +1788,48 @@
     </row>
     <row r="33" spans="1:8" ht="20">
       <c r="B33" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="20">
       <c r="B34" s="5">
-        <v>30</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="9"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="14">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
+    <row r="35" spans="1:8">
+      <c r="B35" s="5">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="14">
       <c r="A36"/>
@@ -2108,6 +2136,15 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" ht="14">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:H4" xr:uid="{A873AFF5-382B-4441-AB55-F296E2858406}"/>
